--- a/data/trans_orig/P52_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>51819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42713</v>
+        <v>42278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60850</v>
+        <v>60585</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6145078592889867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5065221212940743</v>
+        <v>0.5013654426262708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7216040152476193</v>
+        <v>0.7184653341395363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -763,19 +763,19 @@
         <v>16602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11479</v>
+        <v>11702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21688</v>
+        <v>21048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.642526048822172</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.444267075859979</v>
+        <v>0.4529003412090613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.839398056196878</v>
+        <v>0.8145965252099777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -784,19 +784,19 @@
         <v>68420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56979</v>
+        <v>57065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78727</v>
+        <v>78155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6210792680494043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5172274073904614</v>
+        <v>0.5180008556405051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.714644132030363</v>
+        <v>0.7094485933466127</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5361</v>
+        <v>4805</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0123480471024605</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0635746232918218</v>
+        <v>0.05697816886761264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4963</v>
+        <v>4772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03619374499065655</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1920900244524656</v>
+        <v>0.184673531889508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6179</v>
+        <v>6911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01794083630874248</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05608581970872084</v>
+        <v>0.06273199412794336</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>4545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1026</v>
+        <v>990</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13461</v>
+        <v>12860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05389441434673574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0121689842354844</v>
+        <v>0.01173557870478625</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1596308063062698</v>
+        <v>0.1525050135114241</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5921</v>
+        <v>5311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04527687963846831</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2291444826638559</v>
+        <v>0.2055525744441274</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -926,19 +926,19 @@
         <v>5715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1286</v>
+        <v>2000</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14144</v>
+        <v>14625</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05187325080909753</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0116695671257328</v>
+        <v>0.01815634498820558</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1283886038072594</v>
+        <v>0.1327603589715297</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>26921</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18153</v>
+        <v>18935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36004</v>
+        <v>37576</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3192496792618171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.215271454439023</v>
+        <v>0.2245479744317314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4269592433114988</v>
+        <v>0.4456034971092803</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -976,19 +976,19 @@
         <v>7131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3078</v>
+        <v>3109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12298</v>
+        <v>12421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2760033265487031</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1191342580651435</v>
+        <v>0.1203281524475075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4759706676213868</v>
+        <v>0.4807092858334888</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -997,19 +997,19 @@
         <v>34052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23882</v>
+        <v>25172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45207</v>
+        <v>46375</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3091066448327557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2167917852484406</v>
+        <v>0.2284991524517283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4103652094004852</v>
+        <v>0.4209663495536486</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>233612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>213282</v>
+        <v>212389</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>256613</v>
+        <v>253691</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5626989741496083</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.513730021871867</v>
+        <v>0.5115794140464698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6181024476624574</v>
+        <v>0.6110641866581248</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -1122,19 +1122,19 @@
         <v>95230</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82999</v>
+        <v>83048</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106913</v>
+        <v>107202</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.629061329082094</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5482660663468149</v>
+        <v>0.5485902235935821</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7062359192330949</v>
+        <v>0.708145064067514</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>314</v>
@@ -1143,19 +1143,19 @@
         <v>328842</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>304290</v>
+        <v>302658</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>352533</v>
+        <v>352674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5804312909863775</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5370949362315341</v>
+        <v>0.5342158090758735</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6222482955033133</v>
+        <v>0.6224971379723068</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>18262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10455</v>
+        <v>11239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29062</v>
+        <v>29395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04398872632039954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02518308078235901</v>
+        <v>0.02707145867392954</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07000144190446887</v>
+        <v>0.07080354534683364</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1193,19 +1193,19 @@
         <v>7470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3149</v>
+        <v>3089</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14302</v>
+        <v>14573</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0493416629148084</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02080276753424326</v>
+        <v>0.02040252264894423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09447272514068999</v>
+        <v>0.09626498342859083</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1214,19 +1214,19 @@
         <v>25732</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17213</v>
+        <v>16658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37396</v>
+        <v>37509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04541905482208942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03038208307755425</v>
+        <v>0.02940289392496603</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0660060025321204</v>
+        <v>0.06620559047287709</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>10451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5162</v>
+        <v>5117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18199</v>
+        <v>19474</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0251720634447792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01243247899733305</v>
+        <v>0.01232499444143905</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04383656347289573</v>
+        <v>0.04690737870262095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>4033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>991</v>
+        <v>1180</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9809</v>
+        <v>9873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0266397662048478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006547256858664673</v>
+        <v>0.007794490068652166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06479276643541006</v>
+        <v>0.0652155263835484</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1285,19 +1285,19 @@
         <v>14483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8082</v>
+        <v>8534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22811</v>
+        <v>24634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02556424015987942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01426485204694299</v>
+        <v>0.01506339314518689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04026310360750066</v>
+        <v>0.04348028133348183</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>152838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130787</v>
+        <v>133404</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172754</v>
+        <v>172711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.368140236085213</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3150266256306833</v>
+        <v>0.3213301391954915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4161113721668373</v>
+        <v>0.4160081636837967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1335,19 +1335,19 @@
         <v>44652</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33111</v>
+        <v>33766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>56944</v>
+        <v>56694</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2949572417982497</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.218724505442702</v>
+        <v>0.2230516592377342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3761593026404924</v>
+        <v>0.3745036911159011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>188</v>
@@ -1356,19 +1356,19 @@
         <v>197490</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>173897</v>
+        <v>175916</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221371</v>
+        <v>221004</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3485854140316537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3069414343326435</v>
+        <v>0.3105050587121614</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3907379278964723</v>
+        <v>0.3900898192784626</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>49418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38311</v>
+        <v>36937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61643</v>
+        <v>61241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4058871931173139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3146558555143716</v>
+        <v>0.3033714382199511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.506288803332009</v>
+        <v>0.5029930671660768</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1481,19 +1481,19 @@
         <v>34702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26325</v>
+        <v>25991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42635</v>
+        <v>42812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5664929397164022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4297467635032099</v>
+        <v>0.4242887357895416</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6959983508233412</v>
+        <v>0.6988812824867885</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -1502,19 +1502,19 @@
         <v>84121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69594</v>
+        <v>68557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>98609</v>
+        <v>97479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4596454858259117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3802694317260707</v>
+        <v>0.3746024577227482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5388125768548494</v>
+        <v>0.5326368541654865</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>6950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2965</v>
+        <v>2873</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15156</v>
+        <v>15235</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05708521228978952</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02435377817984564</v>
+        <v>0.02359296691526923</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1244783194263396</v>
+        <v>0.1251296508326269</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8383</v>
+        <v>8488</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04297234674888829</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.136852146311962</v>
+        <v>0.1385540496415625</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -1573,19 +1573,19 @@
         <v>9583</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4486</v>
+        <v>4298</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19594</v>
+        <v>19040</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05236132430464343</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02451117718838871</v>
+        <v>0.02348693443318067</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1070656255036898</v>
+        <v>0.1040373639145201</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>5164</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>997</v>
+        <v>1368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13971</v>
+        <v>12445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04241632688631066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008189740817405977</v>
+        <v>0.01123479772100374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1147503939848827</v>
+        <v>0.1022138686650281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10481</v>
+        <v>10371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0473414484932675</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1710971472478846</v>
+        <v>0.1692931434810974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1644,19 +1644,19 @@
         <v>8064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2941</v>
+        <v>2907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17332</v>
+        <v>17665</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04406487393134976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01606796510396997</v>
+        <v>0.01588257949015867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09470633124596783</v>
+        <v>0.09652380251190351</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>60221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46979</v>
+        <v>48161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71366</v>
+        <v>72438</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4946112677065859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3858531444469251</v>
+        <v>0.3955637901827545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5861498221556156</v>
+        <v>0.5949505204654175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1694,19 +1694,19 @@
         <v>21023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13929</v>
+        <v>13669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29861</v>
+        <v>29284</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.343193265041442</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2273866970468986</v>
+        <v>0.2231344159112933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4874631550101083</v>
+        <v>0.4780375434284295</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -1715,19 +1715,19 @@
         <v>81244</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67678</v>
+        <v>68092</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96987</v>
+        <v>96679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4439283159380951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3697990997835783</v>
+        <v>0.3720605823627754</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5299479934489023</v>
+        <v>0.5282671115586319</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>334849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>309779</v>
+        <v>309667</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>360296</v>
+        <v>358914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5389987402689004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.49864486570002</v>
+        <v>0.4984650366598358</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5799606337248397</v>
+        <v>0.5777364856372512</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -1840,19 +1840,19 @@
         <v>146534</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131481</v>
+        <v>132445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>162814</v>
+        <v>161074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6144482699243908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5513285572164602</v>
+        <v>0.5553722425616059</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6827164477832092</v>
+        <v>0.6754186675359062</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>453</v>
@@ -1861,19 +1861,19 @@
         <v>481382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>445834</v>
+        <v>450176</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>510587</v>
+        <v>511486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5599278117727883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5185789775518248</v>
+        <v>0.523629753086524</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.593897760989586</v>
+        <v>0.594943770176185</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>26254</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17963</v>
+        <v>17772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37814</v>
+        <v>37682</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04226061934525725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02891521528658426</v>
+        <v>0.0286068113025901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06086841671900531</v>
+        <v>0.06065650200050201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1911,19 +1911,19 @@
         <v>11037</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5732</v>
+        <v>5997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19677</v>
+        <v>19818</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04628108783996279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0240339294127631</v>
+        <v>0.02514562769217796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08250882345420596</v>
+        <v>0.08309941738703606</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -1932,19 +1932,19 @@
         <v>37291</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26613</v>
+        <v>26046</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51679</v>
+        <v>51190</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04337586384033936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03095547976380563</v>
+        <v>0.03029608790174799</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06011112002240834</v>
+        <v>0.05954297694250784</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>20160</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11535</v>
+        <v>11442</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32582</v>
+        <v>31883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0324503496868912</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01856707597709742</v>
+        <v>0.01841757559238243</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05244693750182187</v>
+        <v>0.05132074837356523</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1982,19 +1982,19 @@
         <v>8103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3395</v>
+        <v>3856</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17382</v>
+        <v>16670</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0339766017603373</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01423626246378186</v>
+        <v>0.01616801011067052</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07288747804720026</v>
+        <v>0.0699003711573562</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2003,19 +2003,19 @@
         <v>28262</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18138</v>
+        <v>18361</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42530</v>
+        <v>42166</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0328737193079341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02109698455165624</v>
+        <v>0.02135709864206856</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04946890298704594</v>
+        <v>0.04904591821349769</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>239980</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216315</v>
+        <v>215926</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>266641</v>
+        <v>264201</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3862902906989512</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3481972513352671</v>
+        <v>0.3475719181476313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4292062309127597</v>
+        <v>0.425279440844137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2053,19 +2053,19 @@
         <v>72807</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58578</v>
+        <v>59808</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87242</v>
+        <v>87426</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3052940404753091</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2456324498034421</v>
+        <v>0.2507869172207625</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3658266239762268</v>
+        <v>0.3665964892198841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>294</v>
@@ -2074,19 +2074,19 @@
         <v>312786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>284291</v>
+        <v>282794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>345521</v>
+        <v>341164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3638226050789383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3306781725625128</v>
+        <v>0.328937048498643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4018988158487891</v>
+        <v>0.3968310615400234</v>
       </c>
     </row>
     <row r="23">
@@ -2417,19 +2417,19 @@
         <v>33252</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24611</v>
+        <v>23797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42424</v>
+        <v>42341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4192817474575817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3103167882635914</v>
+        <v>0.3000537436975667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5349291086168049</v>
+        <v>0.5338791915442042</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2438,19 +2438,19 @@
         <v>8070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4127</v>
+        <v>4082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12068</v>
+        <v>12137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5042754755980879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2579129127499195</v>
+        <v>0.2550583474506268</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7541090336202323</v>
+        <v>0.7584286618923413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2459,19 +2459,19 @@
         <v>41322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32319</v>
+        <v>32704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51189</v>
+        <v>51101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4335522175461098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3390965024541059</v>
+        <v>0.3431305835891336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5370760518932678</v>
+        <v>0.5361559434933398</v>
       </c>
     </row>
     <row r="5">
@@ -2488,19 +2488,19 @@
         <v>5433</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2051</v>
+        <v>1996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12654</v>
+        <v>11965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06850379051521099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02586083097500658</v>
+        <v>0.02516772101920863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1595570629919007</v>
+        <v>0.1508680887593448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4963</v>
+        <v>6052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1211432797471528</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3101282684276009</v>
+        <v>0.3781649964862888</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -2530,19 +2530,19 @@
         <v>7371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3087</v>
+        <v>3236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14400</v>
+        <v>14494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07734197508475947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03239177479413918</v>
+        <v>0.03395503449665742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1510881338155262</v>
+        <v>0.1520724456988064</v>
       </c>
     </row>
     <row r="6">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7171</v>
+        <v>6984</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02568512548191084</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0904225699903311</v>
+        <v>0.08806763680717597</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6264</v>
+        <v>6208</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02137258592247701</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06572328946531386</v>
+        <v>0.06513841737163961</v>
       </c>
     </row>
     <row r="7">
@@ -2622,19 +2622,19 @@
         <v>38586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29464</v>
+        <v>29626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47779</v>
+        <v>47923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4865293365452964</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3715102023169271</v>
+        <v>0.373553070497788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6024451303316569</v>
+        <v>0.6042653558178402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2643,19 +2643,19 @@
         <v>5994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2913</v>
+        <v>2903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10113</v>
+        <v>10150</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3745812446547592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1820055924521026</v>
+        <v>0.1814034508804703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6319437740768945</v>
+        <v>0.6342411712145369</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2664,19 +2664,19 @@
         <v>44580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35504</v>
+        <v>34379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54021</v>
+        <v>54824</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4677332214466537</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3725141206746694</v>
+        <v>0.3607111177329235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.566796055987741</v>
+        <v>0.5752155457062307</v>
       </c>
     </row>
     <row r="8">
@@ -2768,19 +2768,19 @@
         <v>200123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>178409</v>
+        <v>176889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>222885</v>
+        <v>220704</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4064011907566376</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3623054064671271</v>
+        <v>0.3592177015096618</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4526248022055255</v>
+        <v>0.4481950642494741</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -2789,19 +2789,19 @@
         <v>98570</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84844</v>
+        <v>83957</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113318</v>
+        <v>112055</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4917382304246576</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.423264027413839</v>
+        <v>0.4188385808977211</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5653100662798849</v>
+        <v>0.5590103962908778</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>283</v>
@@ -2810,19 +2810,19 @@
         <v>298693</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>272124</v>
+        <v>272594</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>326153</v>
+        <v>326595</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4310894621627204</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3927438401629483</v>
+        <v>0.3934210961319485</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4707206675474435</v>
+        <v>0.4713587254550442</v>
       </c>
     </row>
     <row r="10">
@@ -2839,19 +2839,19 @@
         <v>28113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19334</v>
+        <v>18100</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40345</v>
+        <v>40433</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05708964252253202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03926254012363506</v>
+        <v>0.0367560341141278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08193046430472062</v>
+        <v>0.08210891334689012</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2860,19 +2860,19 @@
         <v>6883</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2940</v>
+        <v>2802</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14796</v>
+        <v>14029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03433819598808493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01466830489282882</v>
+        <v>0.01398060830142726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07381459675057944</v>
+        <v>0.06998587912573108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -2881,19 +2881,19 @@
         <v>34996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25564</v>
+        <v>24097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49694</v>
+        <v>48280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05050757816796188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03689481793944312</v>
+        <v>0.03477863758344162</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07172067183897581</v>
+        <v>0.06967972725978483</v>
       </c>
     </row>
     <row r="11">
@@ -2910,19 +2910,19 @@
         <v>16388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9330</v>
+        <v>9715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26502</v>
+        <v>26493</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03328014739503431</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01894784714825152</v>
+        <v>0.0197294326216864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0538192263095375</v>
+        <v>0.05380119143300868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -2931,19 +2931,19 @@
         <v>9126</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3878</v>
+        <v>4020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17809</v>
+        <v>17160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04552884529286508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01934574502924523</v>
+        <v>0.02005416485275821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08884375269954591</v>
+        <v>0.08560615256929682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -2952,19 +2952,19 @@
         <v>25514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16505</v>
+        <v>16747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38028</v>
+        <v>36897</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03682373385232369</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02382096545253356</v>
+        <v>0.02417015806563752</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05488388708316767</v>
+        <v>0.0532512105894803</v>
       </c>
     </row>
     <row r="12">
@@ -2981,19 +2981,19 @@
         <v>247804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>224863</v>
+        <v>226859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>269540</v>
+        <v>270768</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.503229019325796</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4566418908811064</v>
+        <v>0.4606951626283273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5473684355376224</v>
+        <v>0.5498621342152175</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -3002,19 +3002,19 @@
         <v>85873</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72643</v>
+        <v>72944</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100134</v>
+        <v>100144</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4283947282943923</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3623945462407059</v>
+        <v>0.3638955634105195</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4995418809845335</v>
+        <v>0.499592783830292</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>316</v>
@@ -3023,19 +3023,19 @@
         <v>333677</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>305760</v>
+        <v>305995</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>360031</v>
+        <v>360712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.481579225816994</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4412891212473012</v>
+        <v>0.4416279323092469</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.519615741292319</v>
+        <v>0.5205980477582559</v>
       </c>
     </row>
     <row r="13">
@@ -3127,19 +3127,19 @@
         <v>51886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38937</v>
+        <v>39941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64384</v>
+        <v>63811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3136671077874095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2353873876235436</v>
+        <v>0.2414548463459518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3892188941217264</v>
+        <v>0.3857545636191235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -3148,19 +3148,19 @@
         <v>51963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41964</v>
+        <v>40814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63199</v>
+        <v>62326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4778585248578837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3859045067510635</v>
+        <v>0.375329873974497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5811859162627543</v>
+        <v>0.5731587853391665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -3169,19 +3169,19 @@
         <v>103849</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88372</v>
+        <v>87356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120990</v>
+        <v>119892</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3787911037052465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3223367791930419</v>
+        <v>0.318631742133943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4413119300387801</v>
+        <v>0.4373084681189914</v>
       </c>
     </row>
     <row r="15">
@@ -3198,19 +3198,19 @@
         <v>10059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5023</v>
+        <v>5061</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17373</v>
+        <v>17969</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06080879205582074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03036763202661744</v>
+        <v>0.0305943384723788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1050245139655034</v>
+        <v>0.1086285129983041</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -3219,19 +3219,19 @@
         <v>12587</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7225</v>
+        <v>6424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21309</v>
+        <v>20297</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.115750299428322</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06644160167636867</v>
+        <v>0.05907366365733833</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1959586001858128</v>
+        <v>0.1866548214777283</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -3240,19 +3240,19 @@
         <v>22646</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>14014</v>
+        <v>14477</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33655</v>
+        <v>32866</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08260049448269505</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05111671400907723</v>
+        <v>0.05280395842522179</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1227568127775395</v>
+        <v>0.1198792933106189</v>
       </c>
     </row>
     <row r="16">
@@ -3269,19 +3269,19 @@
         <v>10035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4525</v>
+        <v>4310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19303</v>
+        <v>18786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06066377801193384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02735752341798623</v>
+        <v>0.02605519905019768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.116691781251982</v>
+        <v>0.1135645231436901</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5999</v>
+        <v>6741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01750961853442211</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05517064718976628</v>
+        <v>0.06199349315875266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3311,19 +3311,19 @@
         <v>11939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5827</v>
+        <v>5802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20866</v>
+        <v>21465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0435473455223787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02125270895237327</v>
+        <v>0.02116118100076065</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07610897028761596</v>
+        <v>0.07829259275749983</v>
       </c>
     </row>
     <row r="17">
@@ -3340,19 +3340,19 @@
         <v>93438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80368</v>
+        <v>79953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107698</v>
+        <v>106325</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5648603221448358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4858477828084544</v>
+        <v>0.4833369426726087</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6510668285638211</v>
+        <v>0.6427650624409403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -3361,19 +3361,19 @@
         <v>42287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31655</v>
+        <v>32440</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52996</v>
+        <v>52938</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3888815571793722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2911043781688423</v>
+        <v>0.298320014911753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4873558050187681</v>
+        <v>0.4868298082749168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -3382,19 +3382,19 @@
         <v>135725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117546</v>
+        <v>119431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153055</v>
+        <v>151423</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4950610562896797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4287521943757676</v>
+        <v>0.4356279345543471</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5582708920645968</v>
+        <v>0.5523172060790913</v>
       </c>
     </row>
     <row r="18">
@@ -3486,19 +3486,19 @@
         <v>285262</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>259815</v>
+        <v>260400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>314934</v>
+        <v>310968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3869773020519614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3524568514047784</v>
+        <v>0.3532510549127247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4272299272772131</v>
+        <v>0.4218488198260235</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -3507,19 +3507,19 @@
         <v>158603</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>138793</v>
+        <v>139810</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178544</v>
+        <v>178257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.487713993649551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4267989080022031</v>
+        <v>0.429924321702868</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5490347436202921</v>
+        <v>0.5481522498311664</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>420</v>
@@ -3528,19 +3528,19 @@
         <v>443865</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>411294</v>
+        <v>410554</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>478386</v>
+        <v>477006</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4178138321534767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3871545480933632</v>
+        <v>0.3864582116513278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4503091969005303</v>
+        <v>0.4490098596960334</v>
       </c>
     </row>
     <row r="20">
@@ -3557,19 +3557,19 @@
         <v>43604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31809</v>
+        <v>30677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57664</v>
+        <v>58828</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05915222922036218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04315114096045852</v>
+        <v>0.04161580317815468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07822474087757895</v>
+        <v>0.07980389178166712</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -3578,19 +3578,19 @@
         <v>21409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13550</v>
+        <v>13227</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32667</v>
+        <v>33048</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06583288174343091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0416662281572929</v>
+        <v>0.04067343485494694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1004527457022979</v>
+        <v>0.1016236790098095</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -3599,19 +3599,19 @@
         <v>65013</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49681</v>
+        <v>51172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82558</v>
+        <v>83606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06119724518582895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04676480326544002</v>
+        <v>0.0481690064102157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07771242866664761</v>
+        <v>0.07869867005931901</v>
       </c>
     </row>
     <row r="21">
@@ -3628,19 +3628,19 @@
         <v>28460</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19099</v>
+        <v>18725</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42131</v>
+        <v>41972</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03860795329521712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02590944520054335</v>
+        <v>0.02540158944047307</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05715356148029601</v>
+        <v>0.05693818611181413</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -3649,19 +3649,19 @@
         <v>11030</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20440</v>
+        <v>19864</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03391916899066582</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01707558456220038</v>
+        <v>0.01707800466029993</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06285502326601732</v>
+        <v>0.06108324977121567</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -3670,19 +3670,19 @@
         <v>39490</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28968</v>
+        <v>27603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55135</v>
+        <v>54676</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03717266853398651</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02726817745498853</v>
+        <v>0.02598260241466516</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05189888672367408</v>
+        <v>0.05146728223137373</v>
       </c>
     </row>
     <row r="22">
@@ -3699,19 +3699,19 @@
         <v>379828</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>352365</v>
+        <v>353789</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>408778</v>
+        <v>408813</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5152625154324593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4780074247277576</v>
+        <v>0.4799386513323933</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.554535691765712</v>
+        <v>0.5545834620537995</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -3720,19 +3720,19 @@
         <v>134154</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116036</v>
+        <v>115384</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154177</v>
+        <v>153596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4125339556163523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3568199601415759</v>
+        <v>0.3548143591800157</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.474106239213969</v>
+        <v>0.4723180309968781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>482</v>
@@ -3741,19 +3741,19 @@
         <v>513982</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>480893</v>
+        <v>481861</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>548584</v>
+        <v>547279</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4838162541267079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4526688621008023</v>
+        <v>0.4535803575526666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5163869723479521</v>
+        <v>0.5151589395520282</v>
       </c>
     </row>
     <row r="23">
